--- a/Daily_progress.xlsx
+++ b/Daily_progress.xlsx
@@ -1,29 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AEDMIN\Desktop\senior-dev-roadmap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EB2270-4B5C-4E41-BC28-1D833AF01FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Topics covered</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Miscellaneous topics</t>
+  </si>
+  <si>
+    <t>Additional comments</t>
+  </si>
+  <si>
+    <t>Cloud Observability + API Security</t>
+  </si>
+  <si>
+    <t>Leadership + Performance Engineering</t>
+  </si>
+  <si>
+    <t>Time invested in Hours</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Total Days</t>
+  </si>
+  <si>
+    <t>90 Days</t>
+  </si>
+  <si>
+    <t>Start + Setup</t>
+  </si>
+  <si>
+    <t>Github workflows</t>
+  </si>
+  <si>
+    <t>https://github.com/omkumar01/senior-dev-roadmap/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repository creation and planning </t>
+  </si>
+  <si>
+    <t>System Design + LeetCode problems</t>
+  </si>
+  <si>
+    <t>System Design + DSA + Basic Problems</t>
+  </si>
+  <si>
+    <t>Problems Solved</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,17 +144,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +309,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCD1BED4-DFA8-4E0D-ABBB-966144DDCD93}" name="Table1" displayName="Table1" ref="D4:K95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CD25C034-92DB-497A-A4E1-4269E48DFB7C}" name="Day" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E4D7B80A-2CA9-4578-93DE-8A6DC8C4B921}" name="Date" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BC42139F-D500-449E-B4F8-9A67D9484A83}" name="Skills" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8E2F3939-CD6A-43FA-8903-4031D0CC72B7}" name="Topics covered" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7D9A7122-29DC-4CC0-8550-FD6AD086E71A}" name="Problems Solved" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B96480CF-6095-4DE6-86AE-70386D2E1DFA}" name="Miscellaneous topics" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{54294313-C06C-4B48-84D2-D4DE613AA43E}" name="Additional comments" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{7C5CE8C1-DB0F-45A3-9A6C-670B550DC771}" name="Time invested in Hours" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +593,1531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D4:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45662</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45663</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45664</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45665</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45666</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45667</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45668</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45669</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45670</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45671</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45672</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45673</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45675</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45676</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45677</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45678</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45679</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45681</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45682</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45683</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45684</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>24</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45685</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45686</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45687</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>27</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45688</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45689</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>29</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45690</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45691</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>31</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45692</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>32</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45693</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>33</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45694</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45695</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>35</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45696</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>36</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45697</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>37</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45698</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>38</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45699</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>39</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>40</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45701</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>41</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45702</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>42</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45703</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <v>43</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45704</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <v>44</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45705</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45706</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <v>46</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45707</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="1">
+        <v>47</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45708</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
+        <v>48</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45709</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
+        <v>49</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45710</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>50</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45711</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <v>51</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45712</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
+        <v>52</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45713</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57" s="1">
+        <v>53</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45714</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58" s="1">
+        <v>54</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45715</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D59" s="1">
+        <v>55</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45716</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D60" s="1">
+        <v>56</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45717</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
+        <v>57</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45718</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <v>58</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45719</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>59</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45720</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <v>60</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45721</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <v>61</v>
+      </c>
+      <c r="E65" s="3">
+        <v>45722</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
+        <v>62</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45723</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
+        <v>63</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45724</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
+        <v>64</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45725</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
+        <v>65</v>
+      </c>
+      <c r="E69" s="3">
+        <v>45726</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D70" s="1">
+        <v>66</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45727</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
+        <v>67</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45728</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D72" s="1">
+        <v>68</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45729</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D73" s="1">
+        <v>69</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45730</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D74" s="1">
+        <v>70</v>
+      </c>
+      <c r="E74" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D75" s="1">
+        <v>71</v>
+      </c>
+      <c r="E75" s="3">
+        <v>45732</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D76" s="1">
+        <v>72</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45733</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="1">
+        <v>73</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45734</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="1">
+        <v>74</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45735</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="1">
+        <v>75</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45736</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="1">
+        <v>76</v>
+      </c>
+      <c r="E80" s="3">
+        <v>45737</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D81" s="1">
+        <v>77</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45738</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D82" s="1">
+        <v>78</v>
+      </c>
+      <c r="E82" s="3">
+        <v>45739</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D83" s="1">
+        <v>79</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45740</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D84" s="1">
+        <v>80</v>
+      </c>
+      <c r="E84" s="3">
+        <v>45741</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D85" s="1">
+        <v>81</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45742</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D86" s="1">
+        <v>82</v>
+      </c>
+      <c r="E86" s="3">
+        <v>45743</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D87" s="1">
+        <v>83</v>
+      </c>
+      <c r="E87" s="3">
+        <v>45744</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D88" s="1">
+        <v>84</v>
+      </c>
+      <c r="E88" s="3">
+        <v>45745</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D89" s="1">
+        <v>85</v>
+      </c>
+      <c r="E89" s="3">
+        <v>45746</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
+        <v>86</v>
+      </c>
+      <c r="E90" s="3">
+        <v>45747</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
+        <v>87</v>
+      </c>
+      <c r="E91" s="3">
+        <v>45748</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D92" s="1">
+        <v>88</v>
+      </c>
+      <c r="E92" s="3">
+        <v>45749</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D93" s="1">
+        <v>89</v>
+      </c>
+      <c r="E93" s="3">
+        <v>45750</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="4">
+        <v>90</v>
+      </c>
+      <c r="E94" s="5">
+        <v>45751</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="9" t="str">
+        <f>CONCATENATE(SUM(K5:K94)," hours")</f>
+        <v>2 hours</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{E0FD0536-B442-494F-9BB7-912F9730A9B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>